--- a/data/Simulations/HR1_2/Market Data/HR1_market_data_2020.xlsx
+++ b/data/Simulations/HR1_2/Market Data/HR1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F534C6-6FFB-4400-A61A-B10274A94B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9D5340-CF76-4C67-A135-6F5604884634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1088,7 +1088,6 @@
           <cell r="L4">
             <v>44</v>
           </cell>
-          <cell r="M4"/>
           <cell r="N4">
             <v>46</v>
           </cell>
@@ -1647,13 +1646,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2">
-            <v>18.309999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
@@ -3142,13 +3135,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="B2">
-            <v>6.52</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5477,7 +5464,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!B3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>16.612500000000001</v>
       </c>
       <c r="C3" s="2">
@@ -5485,19 +5472,19 @@
         <v>31</v>
       </c>
       <c r="D3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!D3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="E3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!E3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="F3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!F3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>15.860000000000003</v>
       </c>
       <c r="H3" s="2">
@@ -5517,7 +5504,7 @@
         <v>24.01</v>
       </c>
       <c r="L3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!L3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.86</v>
       </c>
       <c r="M3" s="2">
@@ -5533,11 +5520,11 @@
         <v>53</v>
       </c>
       <c r="P3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!P3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="Q3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!Q3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="R3" s="2">
@@ -5553,7 +5540,7 @@
         <v>53</v>
       </c>
       <c r="U3" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!U3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.107500000000002</v>
       </c>
       <c r="V3" s="2">
@@ -5727,23 +5714,23 @@
         <v>55.2</v>
       </c>
       <c r="N5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!N5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.406666666666666</v>
       </c>
       <c r="O5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!O5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>34.58</v>
       </c>
       <c r="P5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!P5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="Q5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!Q5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>21.783333333333331</v>
       </c>
       <c r="R5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!R5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>26.493333333333336</v>
       </c>
       <c r="S5" s="2">
@@ -5759,7 +5746,7 @@
         <v>22.01</v>
       </c>
       <c r="V5" s="2">
-        <f>'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Winter'!V5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.41</v>
       </c>
       <c r="W5" s="2">
@@ -7589,7 +7576,7 @@
         <v>47.22</v>
       </c>
       <c r="Y5" s="2">
-        <f>'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Up, Summer'!Y5*(1+[1]Main!$B$4)^(Scenarios!$B$3-2020)</f>
         <v>47.043333333333329</v>
       </c>
     </row>
@@ -7815,7 +7802,7 @@
         <v>22.02</v>
       </c>
       <c r="H2" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Summer'!H2*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>24.515000000000001</v>
       </c>
       <c r="I2" s="2">
@@ -7912,11 +7899,11 @@
         <v>33.606666666666662</v>
       </c>
       <c r="G3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Summer'!G3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.71</v>
       </c>
       <c r="H3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Summer'!H3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>24.515000000000001</v>
       </c>
       <c r="I3" s="2">
@@ -7924,7 +7911,7 @@
         <v>22.02</v>
       </c>
       <c r="J3" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Summer'!J3*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>24.7575</v>
       </c>
       <c r="K3" s="2">
@@ -8102,11 +8089,11 @@
         <v>43.2</v>
       </c>
       <c r="D5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Summer'!D5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>37.466666666666669</v>
       </c>
       <c r="E5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Summer'!E5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>33.57</v>
       </c>
       <c r="F5" s="2">
@@ -8114,11 +8101,11 @@
         <v>39.4</v>
       </c>
       <c r="G5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Summer'!G5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.71</v>
       </c>
       <c r="H5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Summer'!H5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>24.515000000000001</v>
       </c>
       <c r="I5" s="2">
@@ -8130,7 +8117,7 @@
         <v>27.98</v>
       </c>
       <c r="K5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Summer'!K5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>24.89</v>
       </c>
       <c r="L5" s="2">
@@ -8138,7 +8125,7 @@
         <v>26</v>
       </c>
       <c r="M5" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Summer'!M5*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>35.503333333333337</v>
       </c>
       <c r="N5" s="2">
@@ -8207,7 +8194,7 @@
         <v>43.2</v>
       </c>
       <c r="E6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Summer'!E6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>33.57</v>
       </c>
       <c r="F6" s="2">
@@ -8215,7 +8202,7 @@
         <v>33.606666666666662</v>
       </c>
       <c r="G6" s="2">
-        <f>'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
+        <f ca="1">'[1]Tertiary Reserve Down, Summer'!G6*(1+[1]Main!$B$5)^(Scenarios!$B$3-2020)</f>
         <v>30.71</v>
       </c>
       <c r="H6" s="2">
